--- a/tradept/Excel/Localization/english/Y游戏内文字_Strings_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y游戏内文字_Strings_hotfix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160582C8-2260-49EF-A300-BF32D6A3BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802E35D-E950-4E68-9E6F-5587C8F5F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23422,13 +23422,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
-      <selection sqref="A1:C2697"/>
+    <sheetView tabSelected="1" topLeftCell="A524" workbookViewId="0">
+      <selection activeCell="B527" sqref="B527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
